--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1080.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1080.xlsx
@@ -354,7 +354,7 @@
         <v>2.244718864393436</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.009627472249583</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1080.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1080.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9592658358120624</v>
+        <v>1.190906763076782</v>
       </c>
       <c r="B1">
-        <v>2.244718864393436</v>
+        <v>2.473937034606934</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.009627472249583</v>
+        <v>2.278348922729492</v>
       </c>
       <c r="E1">
-        <v>1.317688399658727</v>
+        <v>1.179724931716919</v>
       </c>
     </row>
   </sheetData>
